--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-3.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2020-3.xlsx
@@ -819,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
